--- a/references/background_data/b2-b5.xlsx
+++ b/references/background_data/b2-b5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42096714-6A42-4295-BDD6-76597925F4DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C559775-5052-49F5-8EBF-CFC831B08C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>Assembly</t>
   </si>
   <si>
-    <t>Service Life</t>
-  </si>
-  <si>
     <t>Column foundation</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Glazing: triple pane IGU</t>
+  </si>
+  <si>
+    <t>service_lives</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,12 +435,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>60</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -488,7 +488,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>35</v>
@@ -512,7 +512,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>35</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>35</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
         <v>35</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>35</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>35</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1">
         <v>30</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
         <v>30</v>
@@ -600,7 +600,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" s="1">
         <v>20</v>

--- a/references/background_data/b2-b5.xlsx
+++ b/references/background_data/b2-b5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C559775-5052-49F5-8EBF-CFC831B08C89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDE147-99A7-4E2B-848C-ECDBD40040F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
     <t>Curtain wall: steel spandrel</t>
   </si>
   <si>
-    <t>Curtain wall: alu spandrel</t>
-  </si>
-  <si>
     <t>MV: brick</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>service_lives</t>
+  </si>
+  <si>
+    <t>Curtain wall: aluminum spandrel</t>
   </si>
 </sst>
 </file>
@@ -422,7 +422,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -435,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -512,7 +512,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>35</v>
@@ -520,7 +520,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1">
         <v>35</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <v>35</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1">
         <v>35</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>35</v>
@@ -560,7 +560,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
         <v>35</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
         <v>30</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
         <v>30</v>

--- a/references/background_data/b2-b5.xlsx
+++ b/references/background_data/b2-b5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BDE147-99A7-4E2B-848C-ECDBD40040F5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE24774-4C5E-4BD0-A7A1-E3846C891148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Assembly</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>Curtain wall: aluminum spandrel</t>
+  </si>
+  <si>
+    <t>Floor framing</t>
+  </si>
+  <si>
+    <t>Sub-flooring</t>
+  </si>
+  <si>
+    <t>Roof framing</t>
+  </si>
+  <si>
+    <t>Roof decking</t>
+  </si>
+  <si>
+    <t>Asphalt shingle roofing</t>
+  </si>
+  <si>
+    <t>Concrete footing</t>
+  </si>
+  <si>
+    <t>Brick: wood framing</t>
+  </si>
+  <si>
+    <t>Glazing: operable window</t>
   </si>
 </sst>
 </file>
@@ -419,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,8 +471,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>60</v>
@@ -456,7 +480,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
@@ -464,7 +488,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
@@ -472,7 +496,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
@@ -480,7 +504,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>60</v>
@@ -488,7 +512,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>60</v>
@@ -496,7 +520,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>60</v>
@@ -504,47 +528,47 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>22</v>
+      <c r="A11" t="s">
+        <v>23</v>
       </c>
       <c r="B11" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" t="s">
+        <v>25</v>
       </c>
       <c r="B13" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" s="1">
         <v>35</v>
@@ -552,7 +576,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>35</v>
@@ -560,7 +584,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B17" s="1">
         <v>35</v>
@@ -568,15 +592,15 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>29</v>
       </c>
       <c r="B19" s="1">
         <v>35</v>
@@ -584,31 +608,91 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B27" s="1">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B29" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/references/background_data/b2-b5.xlsx
+++ b/references/background_data/b2-b5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mchaf\Documents\GitHub_CLF\pod_lca_data_analysis\references\background_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE24774-4C5E-4BD0-A7A1-E3846C891148}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AF3B39-0A72-410C-9DD6-868788590BC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,7 +603,7 @@
         <v>29</v>
       </c>
       <c r="B19" s="1">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
